--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fcer2a-Cr2.xlsx
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cr2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1965956666666666</v>
+        <v>0.171135</v>
       </c>
       <c r="H2">
-        <v>0.589787</v>
+        <v>0.513405</v>
       </c>
       <c r="I2">
-        <v>0.4981178702246816</v>
+        <v>0.1947788102142926</v>
       </c>
       <c r="J2">
-        <v>0.4981178702246816</v>
+        <v>0.1947788102142925</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.793983</v>
+        <v>0.9210183333333334</v>
       </c>
       <c r="N2">
-        <v>2.381949</v>
+        <v>2.763055</v>
       </c>
       <c r="O2">
-        <v>0.6640413888965553</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="P2">
-        <v>0.6640413888965553</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="Q2">
-        <v>0.156093617207</v>
+        <v>0.157618472475</v>
       </c>
       <c r="R2">
-        <v>1.404842554863</v>
+        <v>1.418566252275</v>
       </c>
       <c r="S2">
-        <v>0.3307708823781917</v>
+        <v>0.131333878854725</v>
       </c>
       <c r="T2">
-        <v>0.3307708823781917</v>
+        <v>0.131333878854725</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1965956666666666</v>
+        <v>0.171135</v>
       </c>
       <c r="H3">
-        <v>0.589787</v>
+        <v>0.513405</v>
       </c>
       <c r="I3">
-        <v>0.4981178702246816</v>
+        <v>0.1947788102142926</v>
       </c>
       <c r="J3">
-        <v>0.4981178702246816</v>
+        <v>0.1947788102142925</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.877231</v>
       </c>
       <c r="O3">
-        <v>0.2445550646227581</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="P3">
-        <v>0.2445550646227581</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="Q3">
-        <v>0.05748660442188888</v>
+        <v>0.050041642395</v>
       </c>
       <c r="R3">
-        <v>0.517379439797</v>
+        <v>0.450374781555</v>
       </c>
       <c r="S3">
-        <v>0.1218172479425477</v>
+        <v>0.04169665456590958</v>
       </c>
       <c r="T3">
-        <v>0.1218172479425477</v>
+        <v>0.04169665456590957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1965956666666666</v>
+        <v>0.171135</v>
       </c>
       <c r="H4">
-        <v>0.589787</v>
+        <v>0.513405</v>
       </c>
       <c r="I4">
-        <v>0.4981178702246816</v>
+        <v>0.1947788102142926</v>
       </c>
       <c r="J4">
-        <v>0.4981178702246816</v>
+        <v>0.1947788102142925</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08178166666666666</v>
+        <v>0.09519866666666667</v>
       </c>
       <c r="N4">
-        <v>0.245345</v>
+        <v>0.285596</v>
       </c>
       <c r="O4">
-        <v>0.06839744871062535</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="P4">
-        <v>0.06839744871062535</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="Q4">
-        <v>0.01607792127944444</v>
+        <v>0.01629182382</v>
       </c>
       <c r="R4">
-        <v>0.144701291515</v>
+        <v>0.14662641438</v>
       </c>
       <c r="S4">
-        <v>0.0340699914805386</v>
+        <v>0.01357498510358789</v>
       </c>
       <c r="T4">
-        <v>0.0340699914805386</v>
+        <v>0.01357498510358789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,108 +726,108 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1965956666666666</v>
+        <v>0.171135</v>
       </c>
       <c r="H5">
-        <v>0.589787</v>
+        <v>0.513405</v>
       </c>
       <c r="I5">
-        <v>0.4981178702246816</v>
+        <v>0.1947788102142926</v>
       </c>
       <c r="J5">
-        <v>0.4981178702246816</v>
+        <v>0.1947788102142925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01528333333333333</v>
+        <v>0.05731766666666666</v>
       </c>
       <c r="N5">
-        <v>0.04585</v>
+        <v>0.171953</v>
       </c>
       <c r="O5">
-        <v>0.01278209469678279</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="P5">
-        <v>0.01278209469678279</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="Q5">
-        <v>0.003004637105555555</v>
+        <v>0.009809058884999999</v>
       </c>
       <c r="R5">
-        <v>0.02704173395</v>
+        <v>0.08828152996499999</v>
       </c>
       <c r="S5">
-        <v>0.00636698978737164</v>
+        <v>0.008173291690070061</v>
       </c>
       <c r="T5">
-        <v>0.006366989787371639</v>
+        <v>0.008173291690070059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1965956666666666</v>
+        <v>0.08086466666666667</v>
       </c>
       <c r="H6">
-        <v>0.589787</v>
+        <v>0.242594</v>
       </c>
       <c r="I6">
-        <v>0.4981178702246816</v>
+        <v>0.09203683385461008</v>
       </c>
       <c r="J6">
-        <v>0.4981178702246816</v>
+        <v>0.09203683385461006</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01222466666666667</v>
+        <v>0.9210183333333334</v>
       </c>
       <c r="N6">
-        <v>0.036674</v>
+        <v>2.763055</v>
       </c>
       <c r="O6">
-        <v>0.01022400307327834</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="P6">
-        <v>0.01022400307327834</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="Q6">
-        <v>0.002403316493111111</v>
+        <v>0.07447784051888889</v>
       </c>
       <c r="R6">
-        <v>0.021629848438</v>
+        <v>0.67030056467</v>
       </c>
       <c r="S6">
-        <v>0.005092758636032007</v>
+        <v>0.06205785102771333</v>
       </c>
       <c r="T6">
-        <v>0.005092758636032006</v>
+        <v>0.06205785102771332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,40 +856,40 @@
         <v>0.242594</v>
       </c>
       <c r="I7">
-        <v>0.2048882166091935</v>
+        <v>0.09203683385461008</v>
       </c>
       <c r="J7">
-        <v>0.2048882166091935</v>
+        <v>0.09203683385461006</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.793983</v>
+        <v>0.2924103333333333</v>
       </c>
       <c r="N7">
-        <v>2.381949</v>
+        <v>0.877231</v>
       </c>
       <c r="O7">
-        <v>0.6640413888965553</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="P7">
-        <v>0.6640413888965553</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="Q7">
-        <v>0.064205170634</v>
+        <v>0.02364566413488889</v>
       </c>
       <c r="R7">
-        <v>0.5778465357060001</v>
+        <v>0.212810977214</v>
       </c>
       <c r="S7">
-        <v>0.1360542559257071</v>
+        <v>0.01970249260868567</v>
       </c>
       <c r="T7">
-        <v>0.1360542559257071</v>
+        <v>0.01970249260868567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,10 +918,10 @@
         <v>0.242594</v>
       </c>
       <c r="I8">
-        <v>0.2048882166091935</v>
+        <v>0.09203683385461008</v>
       </c>
       <c r="J8">
-        <v>0.2048882166091935</v>
+        <v>0.09203683385461006</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2924103333333333</v>
+        <v>0.09519866666666667</v>
       </c>
       <c r="N8">
-        <v>0.877231</v>
+        <v>0.285596</v>
       </c>
       <c r="O8">
-        <v>0.2445550646227581</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="P8">
-        <v>0.2445550646227581</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="Q8">
-        <v>0.02364566413488889</v>
+        <v>0.007698208447111111</v>
       </c>
       <c r="R8">
-        <v>0.212810977214</v>
+        <v>0.069283876024</v>
       </c>
       <c r="S8">
-        <v>0.050106451053303</v>
+        <v>0.006414448507941687</v>
       </c>
       <c r="T8">
-        <v>0.05010645105330299</v>
+        <v>0.006414448507941686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,54 +980,54 @@
         <v>0.242594</v>
       </c>
       <c r="I9">
-        <v>0.2048882166091935</v>
+        <v>0.09203683385461008</v>
       </c>
       <c r="J9">
-        <v>0.2048882166091935</v>
+        <v>0.09203683385461006</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.08178166666666666</v>
+        <v>0.05731766666666666</v>
       </c>
       <c r="N9">
-        <v>0.245345</v>
+        <v>0.171953</v>
       </c>
       <c r="O9">
-        <v>0.06839744871062535</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="P9">
-        <v>0.06839744871062535</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="Q9">
-        <v>0.006613247214444444</v>
+        <v>0.004634974009111111</v>
       </c>
       <c r="R9">
-        <v>0.05951922493</v>
+        <v>0.041714766082</v>
       </c>
       <c r="S9">
-        <v>0.01401383128693881</v>
+        <v>0.00386204171026939</v>
       </c>
       <c r="T9">
-        <v>0.01401383128693881</v>
+        <v>0.003862041710269389</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,60 +1036,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08086466666666667</v>
+        <v>0.2380286666666667</v>
       </c>
       <c r="H10">
-        <v>0.242594</v>
+        <v>0.714086</v>
       </c>
       <c r="I10">
-        <v>0.2048882166091935</v>
+        <v>0.2709144271494888</v>
       </c>
       <c r="J10">
-        <v>0.2048882166091935</v>
+        <v>0.2709144271494888</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01528333333333333</v>
+        <v>0.9210183333333334</v>
       </c>
       <c r="N10">
-        <v>0.04585</v>
+        <v>2.763055</v>
       </c>
       <c r="O10">
-        <v>0.01278209469678279</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="P10">
-        <v>0.01278209469678279</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="Q10">
-        <v>0.001235881655555556</v>
+        <v>0.2192287658588889</v>
       </c>
       <c r="R10">
-        <v>0.0111229349</v>
+        <v>1.97305889273</v>
       </c>
       <c r="S10">
-        <v>0.002618900586953656</v>
+        <v>0.1826699861042553</v>
       </c>
       <c r="T10">
-        <v>0.002618900586953656</v>
+        <v>0.1826699861042552</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08086466666666667</v>
+        <v>0.2380286666666667</v>
       </c>
       <c r="H11">
-        <v>0.242594</v>
+        <v>0.714086</v>
       </c>
       <c r="I11">
-        <v>0.2048882166091935</v>
+        <v>0.2709144271494888</v>
       </c>
       <c r="J11">
-        <v>0.2048882166091935</v>
+        <v>0.2709144271494888</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01222466666666667</v>
+        <v>0.2924103333333333</v>
       </c>
       <c r="N11">
-        <v>0.036674</v>
+        <v>0.877231</v>
       </c>
       <c r="O11">
-        <v>0.01022400307327834</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="P11">
-        <v>0.01022400307327834</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="Q11">
-        <v>0.0009885435951111111</v>
+        <v>0.06960204176288889</v>
       </c>
       <c r="R11">
-        <v>0.008896892356</v>
+        <v>0.626418375866</v>
       </c>
       <c r="S11">
-        <v>0.002094777756290913</v>
+        <v>0.0579951447148978</v>
       </c>
       <c r="T11">
-        <v>0.002094777756290913</v>
+        <v>0.05799514471489779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,46 +1160,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.03928166666666667</v>
+        <v>0.2380286666666667</v>
       </c>
       <c r="H12">
-        <v>0.117845</v>
+        <v>0.714086</v>
       </c>
       <c r="I12">
-        <v>0.09952864409800083</v>
+        <v>0.2709144271494888</v>
       </c>
       <c r="J12">
-        <v>0.09952864409800083</v>
+        <v>0.2709144271494888</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.793983</v>
+        <v>0.09519866666666667</v>
       </c>
       <c r="N12">
-        <v>2.381949</v>
+        <v>0.285596</v>
       </c>
       <c r="O12">
-        <v>0.6640413888965553</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="P12">
-        <v>0.6640413888965553</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="Q12">
-        <v>0.031188975545</v>
+        <v>0.02266001169511111</v>
       </c>
       <c r="R12">
-        <v>0.280700779905</v>
+        <v>0.203940105256</v>
       </c>
       <c r="S12">
-        <v>0.06609113906182741</v>
+        <v>0.01888120842742214</v>
       </c>
       <c r="T12">
-        <v>0.06609113906182741</v>
+        <v>0.01888120842742214</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,140 +1222,140 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.03928166666666667</v>
+        <v>0.2380286666666667</v>
       </c>
       <c r="H13">
-        <v>0.117845</v>
+        <v>0.714086</v>
       </c>
       <c r="I13">
-        <v>0.09952864409800083</v>
+        <v>0.2709144271494888</v>
       </c>
       <c r="J13">
-        <v>0.09952864409800083</v>
+        <v>0.2709144271494888</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2924103333333333</v>
+        <v>0.05731766666666666</v>
       </c>
       <c r="N13">
-        <v>0.877231</v>
+        <v>0.171953</v>
       </c>
       <c r="O13">
-        <v>0.2445550646227581</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="P13">
-        <v>0.2445550646227581</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="Q13">
-        <v>0.01148636524388889</v>
+        <v>0.01364324777311111</v>
       </c>
       <c r="R13">
-        <v>0.103377287195</v>
+        <v>0.122789229958</v>
       </c>
       <c r="S13">
-        <v>0.02434023398920209</v>
+        <v>0.01136808790291362</v>
       </c>
       <c r="T13">
-        <v>0.02434023398920208</v>
+        <v>0.01136808790291362</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03928166666666667</v>
+        <v>0.080855</v>
       </c>
       <c r="H14">
-        <v>0.117845</v>
+        <v>0.242565</v>
       </c>
       <c r="I14">
-        <v>0.09952864409800083</v>
+        <v>0.09202583165265214</v>
       </c>
       <c r="J14">
-        <v>0.09952864409800083</v>
+        <v>0.09202583165265212</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08178166666666666</v>
+        <v>0.9210183333333334</v>
       </c>
       <c r="N14">
-        <v>0.245345</v>
+        <v>2.763055</v>
       </c>
       <c r="O14">
-        <v>0.06839744871062535</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="P14">
-        <v>0.06839744871062535</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="Q14">
-        <v>0.003212520169444444</v>
+        <v>0.07446893734166667</v>
       </c>
       <c r="R14">
-        <v>0.028912681525</v>
+        <v>0.6702204360749999</v>
       </c>
       <c r="S14">
-        <v>0.006807505329931096</v>
+        <v>0.06205043255207171</v>
       </c>
       <c r="T14">
-        <v>0.006807505329931096</v>
+        <v>0.0620504325520717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03928166666666667</v>
+        <v>0.080855</v>
       </c>
       <c r="H15">
-        <v>0.117845</v>
+        <v>0.242565</v>
       </c>
       <c r="I15">
-        <v>0.09952864409800083</v>
+        <v>0.09202583165265214</v>
       </c>
       <c r="J15">
-        <v>0.09952864409800083</v>
+        <v>0.09202583165265212</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,60 +1364,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.01528333333333333</v>
+        <v>0.2924103333333333</v>
       </c>
       <c r="N15">
-        <v>0.04585</v>
+        <v>0.877231</v>
       </c>
       <c r="O15">
-        <v>0.01278209469678279</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="P15">
-        <v>0.01278209469678279</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="Q15">
-        <v>0.0006003548055555556</v>
+        <v>0.02364283750166667</v>
       </c>
       <c r="R15">
-        <v>0.00540319325</v>
+        <v>0.212785537515</v>
       </c>
       <c r="S15">
-        <v>0.001272184553903038</v>
+        <v>0.01970013734727916</v>
       </c>
       <c r="T15">
-        <v>0.001272184553903038</v>
+        <v>0.01970013734727915</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03928166666666667</v>
+        <v>0.080855</v>
       </c>
       <c r="H16">
-        <v>0.117845</v>
+        <v>0.242565</v>
       </c>
       <c r="I16">
-        <v>0.09952864409800083</v>
+        <v>0.09202583165265214</v>
       </c>
       <c r="J16">
-        <v>0.09952864409800083</v>
+        <v>0.09202583165265212</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01222466666666667</v>
+        <v>0.09519866666666667</v>
       </c>
       <c r="N16">
-        <v>0.036674</v>
+        <v>0.285596</v>
       </c>
       <c r="O16">
-        <v>0.01022400307327834</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="P16">
-        <v>0.01022400307327834</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="Q16">
-        <v>0.0004802052811111111</v>
+        <v>0.007697288193333333</v>
       </c>
       <c r="R16">
-        <v>0.00432184753</v>
+        <v>0.06927559374</v>
       </c>
       <c r="S16">
-        <v>0.001017581163137187</v>
+        <v>0.006413681716484642</v>
       </c>
       <c r="T16">
-        <v>0.001017581163137187</v>
+        <v>0.00641368171648464</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.077935</v>
+        <v>0.080855</v>
       </c>
       <c r="H17">
-        <v>0.233805</v>
+        <v>0.242565</v>
       </c>
       <c r="I17">
-        <v>0.1974652690681241</v>
+        <v>0.09202583165265214</v>
       </c>
       <c r="J17">
-        <v>0.1974652690681241</v>
+        <v>0.09202583165265212</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,122 +1488,122 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.793983</v>
+        <v>0.05731766666666666</v>
       </c>
       <c r="N17">
-        <v>2.381949</v>
+        <v>0.171953</v>
       </c>
       <c r="O17">
-        <v>0.6640413888965553</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="P17">
-        <v>0.6640413888965553</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="Q17">
-        <v>0.06187906510500001</v>
+        <v>0.004634419938333333</v>
       </c>
       <c r="R17">
-        <v>0.556911585945</v>
+        <v>0.041709779445</v>
       </c>
       <c r="S17">
-        <v>0.1311251115308291</v>
+        <v>0.003861580036816634</v>
       </c>
       <c r="T17">
-        <v>0.1311251115308291</v>
+        <v>0.003861580036816633</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.077935</v>
+        <v>0.3077286666666667</v>
       </c>
       <c r="H18">
-        <v>0.233805</v>
+        <v>0.9231860000000001</v>
       </c>
       <c r="I18">
-        <v>0.1974652690681241</v>
+        <v>0.3502440971289565</v>
       </c>
       <c r="J18">
-        <v>0.1974652690681241</v>
+        <v>0.3502440971289564</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2924103333333333</v>
+        <v>0.9210183333333334</v>
       </c>
       <c r="N18">
-        <v>0.877231</v>
+        <v>2.763055</v>
       </c>
       <c r="O18">
-        <v>0.2445550646227581</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="P18">
-        <v>0.2445550646227581</v>
+        <v>0.6742719021141652</v>
       </c>
       <c r="Q18">
-        <v>0.02278899932833333</v>
+        <v>0.2834237436922223</v>
       </c>
       <c r="R18">
-        <v>0.205100993955</v>
+        <v>2.55081369323</v>
       </c>
       <c r="S18">
-        <v>0.04829113163770541</v>
+        <v>0.2361597535753999</v>
       </c>
       <c r="T18">
-        <v>0.0482911316377054</v>
+        <v>0.2361597535753999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.077935</v>
+        <v>0.3077286666666667</v>
       </c>
       <c r="H19">
-        <v>0.233805</v>
+        <v>0.9231860000000001</v>
       </c>
       <c r="I19">
-        <v>0.1974652690681241</v>
+        <v>0.3502440971289565</v>
       </c>
       <c r="J19">
-        <v>0.1974652690681241</v>
+        <v>0.3502440971289564</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,60 +1612,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.08178166666666666</v>
+        <v>0.2924103333333333</v>
       </c>
       <c r="N19">
-        <v>0.245345</v>
+        <v>0.877231</v>
       </c>
       <c r="O19">
-        <v>0.06839744871062535</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="P19">
-        <v>0.06839744871062535</v>
+        <v>0.2140718208517425</v>
       </c>
       <c r="Q19">
-        <v>0.006373654191666666</v>
+        <v>0.08998304199622223</v>
       </c>
       <c r="R19">
-        <v>0.057362887725</v>
+        <v>0.809847377966</v>
       </c>
       <c r="S19">
-        <v>0.01350612061321685</v>
+        <v>0.07497739161497026</v>
       </c>
       <c r="T19">
-        <v>0.01350612061321685</v>
+        <v>0.07497739161497025</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.077935</v>
+        <v>0.3077286666666667</v>
       </c>
       <c r="H20">
-        <v>0.233805</v>
+        <v>0.9231860000000001</v>
       </c>
       <c r="I20">
-        <v>0.1974652690681241</v>
+        <v>0.3502440971289565</v>
       </c>
       <c r="J20">
-        <v>0.1974652690681241</v>
+        <v>0.3502440971289564</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,90 +1674,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.01528333333333333</v>
+        <v>0.09519866666666667</v>
       </c>
       <c r="N20">
-        <v>0.04585</v>
+        <v>0.285596</v>
       </c>
       <c r="O20">
-        <v>0.01278209469678279</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="P20">
-        <v>0.01278209469678279</v>
+        <v>0.06969436299899825</v>
       </c>
       <c r="Q20">
-        <v>0.001191106583333333</v>
+        <v>0.02929535876177778</v>
       </c>
       <c r="R20">
-        <v>0.01071995925</v>
+        <v>0.263658228856</v>
       </c>
       <c r="S20">
-        <v>0.002524019768554455</v>
+        <v>0.02441003924356189</v>
       </c>
       <c r="T20">
-        <v>0.002524019768554455</v>
+        <v>0.02441003924356189</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.077935</v>
+        <v>0.3077286666666667</v>
       </c>
       <c r="H21">
-        <v>0.233805</v>
+        <v>0.9231860000000001</v>
       </c>
       <c r="I21">
-        <v>0.1974652690681241</v>
+        <v>0.3502440971289565</v>
       </c>
       <c r="J21">
-        <v>0.1974652690681241</v>
+        <v>0.3502440971289564</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.01222466666666667</v>
+        <v>0.05731766666666666</v>
       </c>
       <c r="N21">
-        <v>0.036674</v>
+        <v>0.171953</v>
       </c>
       <c r="O21">
-        <v>0.01022400307327834</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="P21">
-        <v>0.01022400307327834</v>
+        <v>0.04196191403509414</v>
       </c>
       <c r="Q21">
-        <v>0.0009527293966666667</v>
+        <v>0.01763828913977778</v>
       </c>
       <c r="R21">
-        <v>0.00857456457</v>
+        <v>0.158744602258</v>
       </c>
       <c r="S21">
-        <v>0.002018885517818235</v>
+        <v>0.01469691269502443</v>
       </c>
       <c r="T21">
-        <v>0.002018885517818235</v>
+        <v>0.01469691269502443</v>
       </c>
     </row>
   </sheetData>
